--- a/mathTransformed/HMPSTT_(2016-09-29)_65_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-09-29)_65_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G B H S C J HalliKudligi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>RJS High SchoolKoramangala</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Bangalore – 3</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G J C SaligramaK R Nagara</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S Marballi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt. High School MugulnagaonChittapur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>S U J S Girls High School Ujjini</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>J S S High School LakshmipuramMysore south</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -672,6 +712,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H P S SathigramaK R Nagar</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -699,6 +744,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S D K KoppaluK R Nagara</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -726,6 +776,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G G H S Chincholi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Gulbarga</t>
         </is>
       </c>
@@ -753,6 +808,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G C P U CollegeB MatakereH D Kote</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -780,6 +840,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Sree Chowdeshwari High SchoolHarakabaviKudligi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -807,6 +872,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G P U C Bannikuppe Hunsur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -834,6 +904,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H P S MaragowdanahalliK R Nagar</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -861,6 +936,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S MadapuraT Narsipura</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Mysuru</t>
         </is>
       </c>
@@ -885,7 +965,8 @@
           <t>JAIPRAKASHA S S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">JAIPRAKASHA S </t>
         </is>
@@ -903,6 +984,11 @@
         </is>
       </c>
       <c r="F19" t="inlineStr">
+        <is>
+          <t>G H S MakoduPeriyapatna</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Mysuru</t>
         </is>
@@ -931,6 +1017,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S IttagiHadagali</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -958,6 +1049,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S V K SalagarAland</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -985,6 +1081,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>S M D R S Chornurusanduru</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1012,6 +1113,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Govt. High School VattammanahalliHagaribommanahalli</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1039,6 +1145,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Sri VishwabharathiHigh SchoolH D Kote</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Mysuru</t>
         </is>
       </c>
@@ -1066,6 +1177,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H P S MalkundiNajangud</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Mysuru</t>
         </is>
       </c>
@@ -1093,6 +1209,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Govt. High School GhattaragaAfzalpur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1120,6 +1241,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S HuraNanjangudu</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1147,6 +1273,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G H P S Ayarahally</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1174,6 +1305,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>S M S H S ChannamgereK R Nagara</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1201,6 +1337,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>T S Subbanna Sarvajanika High SchoolVidyaranyapurm</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1228,6 +1369,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S Hootagalli</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1255,6 +1401,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt. High School KawalgaAland</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Kalaburgi</t>
         </is>
       </c>
@@ -1282,6 +1433,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S Uttangi Hadagali</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Bellari</t>
         </is>
       </c>
@@ -1309,6 +1465,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>S K G G P U CollegeHigh School SectionHoovina Hadagali</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1334,7 +1495,8 @@
           <t>MALLIKARJUNA G</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>S O G K High School</t>
         </is>
@@ -1352,6 +1514,11 @@
         </is>
       </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>MahadevapuraKudligi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Bellary</t>
         </is>
@@ -1380,6 +1547,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Govt. High School SonnaH B Halli</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1406,7 +1578,8 @@
           <t>MOHAN KUMAR B</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Road Mysore</t>
         </is>
@@ -1435,6 +1608,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G J C BheryaK R Nagar</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Mysuru</t>
         </is>
       </c>
@@ -1464,6 +1642,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt. High School MagimavinahalliH B Halli</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1491,6 +1674,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Govt. High School MadapuraH D Kote</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1518,6 +1706,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Malnad Kannada High School NellurpalaHunsur</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Mysuru</t>
         </is>
       </c>
@@ -1545,6 +1738,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S HirehggedalKudligi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1572,6 +1770,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G J C TalakaduT Narasipura</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1599,6 +1802,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S TandavapuraNanjangud</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1626,6 +1834,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>S M D R S KudligiKondogalluKudligi</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1653,6 +1866,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G H S ByalahunasiHuvinahadagali</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1680,6 +1898,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>G H P S HagaluruSiruguppa</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1707,6 +1930,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>G H P S UpparahosalliSiruguppa</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1734,6 +1962,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>J S S High School Saraswathipuram</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Mysuru</t>
         </is>
       </c>
@@ -1761,6 +1994,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H S School SoladahalliKudligi</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1788,6 +2026,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>K R C R SKudligi</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1815,6 +2058,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>Govt. High SchoolKrishnananagaraSandur</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1842,6 +2090,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>G H S PanchavalliPeriyapatna</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1869,6 +2122,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>K P G H S Old H B Halli</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1898,6 +2156,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>Govt. High School K S R P Colony</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Tajsultanpur Kalburgi</t>
         </is>
       </c>
@@ -1927,6 +2190,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>G H P S Karathalu</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>K R Nagara Mysore</t>
         </is>
       </c>
@@ -1954,6 +2222,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>G J C MuguruT Narasipura</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -1981,6 +2254,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>Govt. High School Someshwarapura</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -2008,6 +2286,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>G H P S HindagudluHunsur</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -2035,6 +2318,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>Govt. High School KarajagiAfzalpur</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -2064,6 +2352,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>M D R S BandriSandur</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -2091,6 +2384,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>G H S HundimalaHunsur</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Mysuru</t>
         </is>
       </c>
@@ -2120,6 +2418,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>K R C R S VaddinakatteChoranurSandur</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -2147,6 +2450,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>Govt. High SchoolBommagattaSandur</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -2174,6 +2482,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>G H S DoddekoppaluK R Nagar</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>Mysore</t>
         </is>
       </c>
@@ -2201,6 +2514,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>G H S GobburAfzalpur</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>Kalburgi</t>
         </is>
       </c>
@@ -2230,6 +2548,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>G H S RebbanpalliSedam</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>Kalburgi</t>
         </is>
       </c>
@@ -2255,7 +2578,8 @@
           <t>VENKATESH MURTHY R</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>G H S Harohalli (Varuna) Mysore</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-09-29)_65_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-09-29)_65_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Gulbarga</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Mysuru</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,6 @@
           <t>JAIPRAKASHA S S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve">JAIPRAKASHA S </t>
@@ -990,7 +989,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Mysuru</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1021,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1053,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1085,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1117,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1149,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Mysuru</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1181,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Mysuru</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1213,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1245,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1277,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1309,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1341,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1373,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1405,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Kalaburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1438,7 +1437,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bellari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1469,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1494,6 @@
           <t>MALLIKARJUNA G</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>S O G K High School</t>
@@ -1520,7 +1518,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1550,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1576,6 @@
           <t>MOHAN KUMAR B</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>Road Mysore</t>
@@ -1613,7 +1610,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Mysuru</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1647,7 +1644,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1676,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1708,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Mysuru</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1740,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1772,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1804,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1836,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1868,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1900,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1932,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1964,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Mysuru</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1996,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2028,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2060,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2092,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2124,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2158,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tajsultanpur Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2192,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>K R Nagara Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2224,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2256,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2288,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2320,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2354,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2386,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Mysuru</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2420,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2452,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2484,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2516,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2550,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Kalburgi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2575,6 @@
           <t>VENKATESH MURTHY R</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
           <t>G H S Harohalli (Varuna) Mysore</t>

--- a/mathTransformed/HMPSTT_(2016-09-29)_65_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-09-29)_65_3.xlsx
@@ -2577,7 +2577,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>G H S Harohalli (Varuna) Mysore</t>
+          <t>Mysuru (Mysore)</t>
         </is>
       </c>
     </row>
